--- a/Tables/Excel/Language.xlsx
+++ b/Tables/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19155" windowHeight="11775"/>
+    <workbookView windowWidth="15705" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,12 @@
     <t>English</t>
   </si>
   <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -39,22 +45,40 @@
     <t>英文</t>
   </si>
   <si>
-    <t>100001_张三：</t>
-  </si>
-  <si>
-    <t>100001_ZhangSan:</t>
-  </si>
-  <si>
-    <t>100002_李四：</t>
-  </si>
-  <si>
-    <t>100002_LiSi:</t>
-  </si>
-  <si>
-    <t>100003_王五：</t>
-  </si>
-  <si>
-    <t>100003_WangWu:</t>
+    <t>日文</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>100001_张三</t>
+  </si>
+  <si>
+    <t>100001_ZhangSan</t>
+  </si>
+  <si>
+    <t>100001_張三の名前</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>100002_李四</t>
+  </si>
+  <si>
+    <t>100002_LiSi</t>
+  </si>
+  <si>
+    <t>100002_李四の名前</t>
+  </si>
+  <si>
+    <t>100003_王五</t>
+  </si>
+  <si>
+    <t>100003_WangWu</t>
+  </si>
+  <si>
+    <t>100003_王五の名前</t>
   </si>
 </sst>
 </file>
@@ -1025,19 +1049,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="3" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,60 +1071,96 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Excel/Language.xlsx
+++ b/Tables/Excel/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -51,34 +51,25 @@
     <t>其他</t>
   </si>
   <si>
-    <t>100001_张三</t>
-  </si>
-  <si>
-    <t>100001_ZhangSan</t>
-  </si>
-  <si>
-    <t>100001_張三の名前</t>
+    <t>中国語</t>
   </si>
   <si>
     <t>xxx</t>
   </si>
   <si>
-    <t>100002_李四</t>
-  </si>
-  <si>
-    <t>100002_LiSi</t>
-  </si>
-  <si>
-    <t>100002_李四の名前</t>
-  </si>
-  <si>
-    <t>100003_王五</t>
-  </si>
-  <si>
-    <t>100003_WangWu</t>
-  </si>
-  <si>
-    <t>100003_王五の名前</t>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>你好，欢迎来到我的游戏！</t>
+  </si>
+  <si>
+    <t>Hello, welcome to my game!</t>
+  </si>
+  <si>
+    <t>こんにちは、私のゲームへようこそ！</t>
   </si>
 </sst>
 </file>
@@ -1049,16 +1040,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="5" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1117,16 +1110,16 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1134,16 +1127,16 @@
         <v>100002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1151,16 +1144,33 @@
         <v>100003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
